--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\The-Whale-Optimization-Algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Metaheuristic-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ECC2DF-A20C-48F5-AB21-4E328155CDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$599</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="110">
   <si>
     <t>Sphere</t>
   </si>
@@ -74,13 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ackley</t>
-  </si>
-  <si>
-    <t>Ackley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Griewank</t>
   </si>
   <si>
@@ -97,13 +91,6 @@
   </si>
   <si>
     <t>Penalized 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michalewitz</t>
-  </si>
-  <si>
-    <t>Michalewitz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,13 +127,6 @@
   </si>
   <si>
     <t>-PI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpine</t>
-  </si>
-  <si>
-    <t>Alpine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,9 +170,6 @@
   </si>
   <si>
     <t>Elliptic</t>
-  </si>
-  <si>
-    <t>Salomon</t>
   </si>
   <si>
     <t>De Jong5</t>
@@ -385,9 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pathological</t>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,11 +373,80 @@
     <t>Fletcher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Ackley1</t>
+  </si>
+  <si>
+    <t>Ackley1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpine1</t>
+  </si>
+  <si>
+    <t>Branin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cosine Mixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellipsoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ellipsoidal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exponential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hartmann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kowalik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k-tablet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michalewicz</t>
+  </si>
+  <si>
+    <t>Michalewicz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathological</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paviani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schaffer6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shekel 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinusoidal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -778,11 +821,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -800,22 +843,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1000,7 +1043,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1">
         <v>-32</v>
@@ -1020,7 +1063,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>-600</v>
@@ -1040,7 +1083,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>-50</v>
@@ -1094,7 +1137,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>-5.12</v>
@@ -1111,7 +1154,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1">
         <v>-100</v>
@@ -1128,7 +1171,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>-600</v>
@@ -1145,7 +1188,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1">
         <v>-30</v>
@@ -1162,7 +1205,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>-600</v>
@@ -1182,7 +1225,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1">
         <v>-32</v>
@@ -1273,7 +1316,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
         <v>-600</v>
@@ -1290,7 +1333,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1">
         <v>-32</v>
@@ -1307,13 +1350,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -1421,7 +1464,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1">
         <v>-1.28</v>
@@ -1441,7 +1484,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1">
         <v>-50</v>
@@ -1461,7 +1504,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
         <v>-500</v>
@@ -1481,7 +1524,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1">
         <v>-600</v>
@@ -1501,13 +1544,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1">
         <v>30</v>
@@ -1521,7 +1564,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1">
         <v>-50</v>
@@ -1581,7 +1624,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>-100</v>
@@ -1601,7 +1644,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
         <v>-100</v>
@@ -1721,7 +1764,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1">
         <v>-32</v>
@@ -1741,7 +1784,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1">
         <v>-600</v>
@@ -1761,7 +1804,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1">
         <v>-50</v>
@@ -1781,7 +1824,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
         <v>-50</v>
@@ -1801,13 +1844,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1">
         <v>30</v>
@@ -1821,7 +1864,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1">
         <v>-20</v>
@@ -1841,7 +1884,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1">
         <v>-10</v>
@@ -1861,7 +1904,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B56" s="1">
         <v>-65</v>
@@ -1881,7 +1924,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1">
         <v>-5</v>
@@ -1901,7 +1944,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B58" s="1">
         <v>-5</v>
@@ -1921,7 +1964,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1">
         <v>-5</v>
@@ -1941,7 +1984,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B60" s="1">
         <v>-2</v>
@@ -1961,7 +2004,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -1981,7 +2024,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -2001,7 +2044,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2021,7 +2064,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -2041,7 +2084,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -2101,7 +2144,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1">
         <v>-100</v>
@@ -2121,7 +2164,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B69" s="1">
         <v>-100</v>
@@ -2241,7 +2284,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B75" s="1">
         <v>-32</v>
@@ -2261,7 +2304,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B76" s="1">
         <v>-600</v>
@@ -2281,7 +2324,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B77" s="1">
         <v>-50</v>
@@ -2301,7 +2344,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B78" s="1">
         <v>-50</v>
@@ -2321,7 +2364,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B79" s="1">
         <v>-65</v>
@@ -2341,7 +2384,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1">
         <v>-5</v>
@@ -2361,7 +2404,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B81" s="1">
         <v>-5</v>
@@ -2381,7 +2424,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1">
         <v>-5</v>
@@ -2401,7 +2444,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B83" s="1">
         <v>-2</v>
@@ -2421,7 +2464,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -2441,7 +2484,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2461,7 +2504,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2481,7 +2524,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -2501,7 +2544,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2561,7 +2604,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B91" s="1">
         <v>-100</v>
@@ -2581,7 +2624,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1">
         <v>-100</v>
@@ -2701,7 +2744,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B98" s="1">
         <v>-32</v>
@@ -2721,7 +2764,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B99" s="1">
         <v>-600</v>
@@ -2741,7 +2784,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B100" s="1">
         <v>-50</v>
@@ -2761,7 +2804,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1">
         <v>-50</v>
@@ -2781,7 +2824,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B102" s="1">
         <v>-65</v>
@@ -2801,7 +2844,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B103" s="1">
         <v>-5</v>
@@ -2821,7 +2864,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B104" s="1">
         <v>-5</v>
@@ -2841,7 +2884,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1">
         <v>-5</v>
@@ -2861,7 +2904,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1">
         <v>-2</v>
@@ -2881,7 +2924,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -2901,7 +2944,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -2921,7 +2964,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -2941,7 +2984,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -2961,7 +3004,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -3021,7 +3064,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B114" s="1">
         <v>-100</v>
@@ -3041,7 +3084,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B115" s="1">
         <v>-100</v>
@@ -3121,7 +3164,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B119" s="1">
         <v>-10</v>
@@ -3161,7 +3204,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B121" s="1">
         <v>-32</v>
@@ -3181,7 +3224,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B122" s="1">
         <v>-600</v>
@@ -3201,7 +3244,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B123" s="1">
         <v>-50</v>
@@ -3221,7 +3264,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B124" s="1">
         <v>-5</v>
@@ -3241,7 +3284,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B125" s="1">
         <v>-65</v>
@@ -3261,7 +3304,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B126" s="1">
         <v>-5</v>
@@ -3301,7 +3344,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B128" s="1">
         <v>-5</v>
@@ -3321,7 +3364,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -3341,7 +3384,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -3361,7 +3404,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -3381,7 +3424,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B132" s="1">
         <v>-5.12</v>
@@ -3401,7 +3444,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B133" s="1">
         <v>-100</v>
@@ -3421,7 +3464,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B134" s="1">
         <v>-100</v>
@@ -3461,7 +3504,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B136" s="1">
         <v>-4.5</v>
@@ -3481,7 +3524,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B137" s="1">
         <v>-100</v>
@@ -3541,7 +3584,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B140" s="1">
         <v>-100</v>
@@ -3561,7 +3604,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B141" s="1">
         <v>-32.768000000000001</v>
@@ -3581,7 +3624,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B142" s="1">
         <v>-600</v>
@@ -3601,7 +3644,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B143" s="1">
         <v>-10</v>
@@ -3621,7 +3664,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B144" s="1">
         <v>-100</v>
@@ -3661,7 +3704,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B146" s="1">
         <v>-100</v>
@@ -3681,7 +3724,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B147" s="1">
         <v>-100</v>
@@ -3721,7 +3764,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B149" s="1">
         <v>-100</v>
@@ -3741,7 +3784,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B150" s="1">
         <v>-10</v>
@@ -3761,7 +3804,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B151" s="1">
         <v>-10</v>
@@ -3781,7 +3824,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B152" s="1">
         <v>-10</v>
@@ -3875,7 +3918,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B157" s="1">
         <v>-100</v>
@@ -3909,7 +3952,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B159" s="1">
         <v>-32</v>
@@ -3926,7 +3969,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B160" s="1">
         <v>-50</v>
@@ -3983,7 +4026,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B163" s="1">
         <v>-100</v>
@@ -4003,7 +4046,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B164" s="1">
         <v>-100</v>
@@ -4083,7 +4126,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B168" s="1">
         <v>-10</v>
@@ -4103,7 +4146,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B169" s="1">
         <v>-1.28</v>
@@ -4123,7 +4166,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B170" s="1">
         <v>-1</v>
@@ -4183,7 +4226,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B173" s="1">
         <v>-32</v>
@@ -4203,7 +4246,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B174" s="1">
         <v>-600</v>
@@ -4223,7 +4266,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B175" s="1">
         <v>-50</v>
@@ -4243,7 +4286,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B176" s="1">
         <v>-50</v>
@@ -4263,7 +4306,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B177" s="1">
         <v>-10</v>
@@ -4283,7 +4326,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B178" s="1">
         <v>-10</v>
@@ -4303,7 +4346,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B179" s="1">
         <v>-1</v>
@@ -4323,7 +4366,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B180" s="1">
         <v>-5</v>
@@ -4343,7 +4386,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B181" s="1">
         <v>-5</v>
@@ -4363,7 +4406,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B182" s="1">
         <v>-5</v>
@@ -4383,7 +4426,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B183" s="1">
         <v>-100</v>
@@ -4403,7 +4446,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B184" s="1">
         <v>-100</v>
@@ -4423,7 +4466,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B185" s="1">
         <v>-100</v>
@@ -4443,7 +4486,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B186" s="1">
         <v>-65.536000000000001</v>
@@ -4463,7 +4506,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B187" s="1">
         <v>-5</v>
@@ -4483,7 +4526,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B188" s="1">
         <v>-5</v>
@@ -4503,7 +4546,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B189" s="1">
         <v>-5</v>
@@ -4523,7 +4566,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B190" s="1">
         <v>-2</v>
@@ -4543,7 +4586,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B191" s="1">
         <v>1</v>
@@ -4563,7 +4606,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -4583,7 +4626,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
@@ -4603,7 +4646,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
@@ -4623,7 +4666,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
@@ -4677,7 +4720,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B198" s="1">
         <v>-100</v>
@@ -4694,7 +4737,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B199" s="1">
         <v>-100</v>
@@ -4762,7 +4805,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B203" s="1">
         <v>-32</v>
@@ -4779,7 +4822,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B204" s="1">
         <v>-600</v>
@@ -4796,7 +4839,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B205" s="1">
         <v>-50</v>
@@ -4813,7 +4856,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B206" s="1">
         <v>-50</v>
@@ -4830,7 +4873,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B207" s="1">
         <v>-65</v>
@@ -4847,7 +4890,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B208" s="1">
         <v>-5</v>
@@ -4864,7 +4907,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B209" s="1">
         <v>-2</v>
@@ -4881,7 +4924,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B210" s="1">
         <v>0</v>
@@ -4898,7 +4941,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B211" s="1">
         <v>0</v>
@@ -4915,7 +4958,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B212" s="1">
         <v>0</v>
@@ -4972,7 +5015,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B215" s="1">
         <v>-100</v>
@@ -4992,7 +5035,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B216" s="1">
         <v>-100</v>
@@ -5112,7 +5155,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B222" s="1">
         <v>-32</v>
@@ -5132,7 +5175,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B223" s="1">
         <v>-600</v>
@@ -5152,7 +5195,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B224" s="1">
         <v>-50</v>
@@ -5172,7 +5215,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B225" s="1">
         <v>-50</v>
@@ -5192,7 +5235,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B226" s="1">
         <v>-65</v>
@@ -5212,7 +5255,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B227" s="1">
         <v>-5</v>
@@ -5232,7 +5275,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B228" s="1">
         <v>-5</v>
@@ -5252,7 +5295,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B229" s="1">
         <v>-5</v>
@@ -5272,7 +5315,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B230" s="1">
         <v>-2</v>
@@ -5292,7 +5335,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B231" s="1">
         <v>1</v>
@@ -5312,7 +5355,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -5332,7 +5375,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
@@ -5352,7 +5395,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B234" s="1">
         <v>0</v>
@@ -5372,7 +5415,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
@@ -5432,7 +5475,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B238" s="1">
         <v>-10</v>
@@ -5472,7 +5515,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B240" s="1">
         <v>-5.12</v>
@@ -5560,7 +5603,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B245" s="1">
         <v>-600</v>
@@ -5577,7 +5620,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B246" s="1">
         <v>-32</v>
@@ -5634,7 +5677,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B249" s="1">
         <v>-100</v>
@@ -5654,7 +5697,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B250" s="1">
         <v>-100</v>
@@ -5774,7 +5817,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B256" s="1">
         <v>-32</v>
@@ -5794,7 +5837,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B257" s="1">
         <v>-600</v>
@@ -5814,7 +5857,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B258" s="1">
         <v>-50</v>
@@ -5834,7 +5877,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B259" s="1">
         <v>-50</v>
@@ -5854,7 +5897,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B260" s="1">
         <v>-100</v>
@@ -5874,7 +5917,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B261" s="1">
         <v>-100</v>
@@ -5894,7 +5937,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B262" s="1">
         <v>-5</v>
@@ -5931,7 +5974,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B264" s="1">
         <v>-10</v>
@@ -5948,7 +5991,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B265" s="1">
         <v>-1</v>
@@ -5982,7 +6025,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B267" s="1">
         <v>-10</v>
@@ -6050,7 +6093,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B271" s="1">
         <v>-600</v>
@@ -6067,7 +6110,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B272" s="1">
         <v>-50</v>
@@ -6106,7 +6149,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E275" s="1">
         <v>19</v>
@@ -6117,7 +6160,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E276" s="1">
         <v>19</v>
@@ -6183,7 +6226,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E282" s="1">
         <v>19</v>
@@ -6194,7 +6237,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E283" s="1">
         <v>19</v>
@@ -6205,7 +6248,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E284" s="1">
         <v>19</v>
@@ -6216,7 +6259,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E285" s="1">
         <v>19</v>
@@ -6227,7 +6270,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E286" s="1">
         <v>19</v>
@@ -6238,7 +6281,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E287" s="1">
         <v>19</v>
@@ -6249,7 +6292,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E288" s="1">
         <v>19</v>
@@ -6260,7 +6303,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E289" s="1">
         <v>19</v>
@@ -6271,7 +6314,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E290" s="1">
         <v>19</v>
@@ -6304,7 +6347,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E293" s="1">
         <v>20</v>
@@ -6315,7 +6358,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E294" s="1">
         <v>20</v>
@@ -6381,7 +6424,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E300" s="1">
         <v>20</v>
@@ -6392,7 +6435,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E301" s="1">
         <v>20</v>
@@ -6403,7 +6446,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E302" s="1">
         <v>20</v>
@@ -6454,7 +6497,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B305" s="1">
         <v>-100</v>
@@ -6474,7 +6517,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B306" s="1">
         <v>-100</v>
@@ -6594,7 +6637,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B312" s="1">
         <v>-32</v>
@@ -6614,7 +6657,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B313" s="1">
         <v>-600</v>
@@ -6634,7 +6677,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B314" s="1">
         <v>-50</v>
@@ -6654,7 +6697,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B315" s="1">
         <v>-50</v>
@@ -6674,7 +6717,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B316" s="1">
         <v>-65</v>
@@ -6694,7 +6737,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B317" s="1">
         <v>-5</v>
@@ -6714,7 +6757,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B318" s="1">
         <v>-5</v>
@@ -6734,7 +6777,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B319" s="1">
         <v>-5</v>
@@ -6754,7 +6797,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B320" s="1">
         <v>-2</v>
@@ -6774,7 +6817,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B321" s="1">
         <v>1</v>
@@ -6794,7 +6837,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B322" s="1">
         <v>0</v>
@@ -6854,7 +6897,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B325" s="1">
         <v>-100</v>
@@ -6874,7 +6917,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B326" s="1">
         <v>-100</v>
@@ -6994,7 +7037,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B332" s="1">
         <v>-32</v>
@@ -7014,7 +7057,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B333" s="1">
         <v>-600</v>
@@ -7034,7 +7077,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B334" s="1">
         <v>-50</v>
@@ -7054,7 +7097,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B335" s="1">
         <v>-50</v>
@@ -7074,7 +7117,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B336" s="1">
         <v>-65</v>
@@ -7094,7 +7137,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B337" s="1">
         <v>-5</v>
@@ -7114,7 +7157,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B338" s="1">
         <v>-5</v>
@@ -7134,7 +7177,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B339" s="1">
         <v>-5</v>
@@ -7154,7 +7197,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B340" s="1">
         <v>-2</v>
@@ -7174,7 +7217,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B341" s="1">
         <v>1</v>
@@ -7194,7 +7237,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B342" s="1">
         <v>0</v>
@@ -7214,7 +7257,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B343" s="1">
         <v>0</v>
@@ -7234,7 +7277,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B344" s="1">
         <v>0</v>
@@ -7254,7 +7297,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B345" s="1">
         <v>0</v>
@@ -7314,7 +7357,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B348" s="1">
         <v>-100</v>
@@ -7334,7 +7377,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B349" s="1">
         <v>-100</v>
@@ -7454,7 +7497,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B355" s="1">
         <v>-32</v>
@@ -7474,7 +7517,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B356" s="1">
         <v>-600</v>
@@ -7494,7 +7537,7 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B357" s="1">
         <v>-50</v>
@@ -7514,7 +7557,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B358" s="1">
         <v>-50</v>
@@ -7534,7 +7577,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B359" s="1">
         <v>-65</v>
@@ -7554,7 +7597,7 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B360" s="1">
         <v>-5</v>
@@ -7574,7 +7617,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B361" s="1">
         <v>-5</v>
@@ -7594,7 +7637,7 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B362" s="1">
         <v>-5</v>
@@ -7620,7 +7663,7 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B363" s="1">
         <v>-2</v>
@@ -7640,7 +7683,7 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B364" s="1">
         <v>1</v>
@@ -7660,7 +7703,7 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B365" s="1">
         <v>0</v>
@@ -7680,7 +7723,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B366" s="1">
         <v>0</v>
@@ -7700,7 +7743,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B367" s="1">
         <v>0</v>
@@ -7720,7 +7763,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B368" s="1">
         <v>0</v>
@@ -7780,7 +7823,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B371" s="1">
         <v>-100</v>
@@ -7800,7 +7843,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B372" s="1">
         <v>-100</v>
@@ -7920,7 +7963,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B378" s="1">
         <v>-32</v>
@@ -7940,7 +7983,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B379" s="1">
         <v>-600</v>
@@ -7960,7 +8003,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B380" s="1">
         <v>-50</v>
@@ -7980,7 +8023,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B381" s="1">
         <v>-50</v>
@@ -8000,7 +8043,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B382" s="1">
         <v>-65</v>
@@ -8020,7 +8063,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B383" s="1">
         <v>-5</v>
@@ -8040,7 +8083,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B384" s="1">
         <v>-5</v>
@@ -8060,7 +8103,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B385" s="1">
         <v>-2</v>
@@ -8080,7 +8123,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B386" s="1">
         <v>1</v>
@@ -8100,7 +8143,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B387" s="1">
         <v>0</v>
@@ -8120,7 +8163,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B388" s="1">
         <v>0</v>
@@ -8140,7 +8183,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B389" s="1">
         <v>0</v>
@@ -8160,7 +8203,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B390" s="1">
         <v>0</v>
@@ -8180,7 +8223,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B391" s="1">
         <v>-10</v>
@@ -8200,7 +8243,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B392" s="1">
         <v>-100</v>
@@ -8220,7 +8263,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B393" s="1">
         <v>-5</v>
@@ -8280,7 +8323,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B396" s="1">
         <v>-100</v>
@@ -8300,7 +8343,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B397" s="1">
         <v>-100</v>
@@ -8420,7 +8463,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B403" s="1">
         <v>-32</v>
@@ -8440,7 +8483,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B404" s="1">
         <v>-600</v>
@@ -8460,7 +8503,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B405" s="1">
         <v>-50</v>
@@ -8480,7 +8523,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B406" s="1">
         <v>-50</v>
@@ -8500,7 +8543,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B407" s="1">
         <v>-65</v>
@@ -8520,7 +8563,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B408" s="1">
         <v>-5</v>
@@ -8540,7 +8583,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B409" s="1">
         <v>-5</v>
@@ -8560,7 +8603,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B410" s="1">
         <v>1</v>
@@ -8580,7 +8623,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B411" s="1">
         <v>0</v>
@@ -8600,7 +8643,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B412" s="1">
         <v>0</v>
@@ -8660,7 +8703,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B415" s="1">
         <v>-100</v>
@@ -8680,7 +8723,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B416" s="1">
         <v>-100</v>
@@ -8720,7 +8763,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B418" s="1">
         <v>-32</v>
@@ -8740,7 +8783,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B419" s="1">
         <v>-600</v>
@@ -8760,7 +8803,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B420" s="1">
         <v>-5</v>
@@ -8780,7 +8823,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B421" s="1">
         <v>-5</v>
@@ -8800,7 +8843,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B422" s="1">
         <v>-5</v>
@@ -8840,7 +8883,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B424" s="1">
         <v>-50</v>
@@ -8920,7 +8963,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B428" s="1">
         <v>-600</v>
@@ -8960,7 +9003,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B430" s="1">
         <v>-32</v>
@@ -8980,7 +9023,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B431" s="1">
         <v>-10</v>
@@ -9040,7 +9083,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B434" s="1">
         <v>-100</v>
@@ -9060,7 +9103,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B435" s="1">
         <v>-100</v>
@@ -9180,7 +9223,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B441" s="1">
         <v>-32</v>
@@ -9200,7 +9243,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B442" s="1">
         <v>-600</v>
@@ -9220,7 +9263,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B443" s="1">
         <v>-50</v>
@@ -9240,7 +9283,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B444" s="1">
         <v>-50</v>
@@ -9260,7 +9303,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B445" s="1">
         <v>-65</v>
@@ -9280,7 +9323,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B446" s="1">
         <v>-5</v>
@@ -9300,7 +9343,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B447" s="1">
         <v>-5</v>
@@ -9320,7 +9363,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B448" s="1">
         <v>-5</v>
@@ -9340,7 +9383,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B449" s="1">
         <v>-2</v>
@@ -9360,7 +9403,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B450" s="1">
         <v>1</v>
@@ -9380,7 +9423,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B451" s="1">
         <v>0</v>
@@ -9400,7 +9443,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B452" s="1">
         <v>0</v>
@@ -9420,7 +9463,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B453" s="1">
         <v>0</v>
@@ -9440,7 +9483,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B454" s="1">
         <v>0</v>
@@ -9460,7 +9503,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B455" s="1">
         <v>-10</v>
@@ -9480,7 +9523,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B456" s="1">
         <v>-4.5</v>
@@ -9500,7 +9543,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B457" s="1">
         <v>-10</v>
@@ -9520,7 +9563,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B458" s="1">
         <v>-10</v>
@@ -9540,13 +9583,13 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B459" s="1">
         <v>0</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D459" s="1">
         <v>30</v>
@@ -9560,7 +9603,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B460" s="1">
         <v>-10</v>
@@ -9580,7 +9623,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B461" s="1">
         <v>-100</v>
@@ -9600,7 +9643,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B462" s="1">
         <v>-10</v>
@@ -9620,7 +9663,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B463" s="1">
         <v>-1.2</v>
@@ -9640,7 +9683,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B464" s="1">
         <v>-5</v>
@@ -9700,7 +9743,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B467" s="1">
         <v>-100</v>
@@ -9720,7 +9763,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B468" s="1">
         <v>-100</v>
@@ -9800,7 +9843,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B472" s="1">
         <v>-100</v>
@@ -9820,7 +9863,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B473" s="1">
         <v>-4</v>
@@ -9840,7 +9883,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B474" s="1">
         <v>-1</v>
@@ -9860,7 +9903,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B475" s="1">
         <v>-100</v>
@@ -9880,7 +9923,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B476" s="1">
         <v>-1</v>
@@ -9900,7 +9943,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B477" s="1">
         <v>-100</v>
@@ -9920,7 +9963,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B478" s="1">
         <v>-1</v>
@@ -9940,7 +9983,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B479" s="1">
         <v>-10</v>
@@ -9960,7 +10003,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B480" s="1">
         <v>-1.2</v>
@@ -10000,7 +10043,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B482" s="1">
         <v>-32</v>
@@ -10020,7 +10063,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B483" s="1">
         <v>-600</v>
@@ -10040,7 +10083,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B484" s="1">
         <v>-50</v>
@@ -10060,7 +10103,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B485" s="1">
         <v>-50</v>
@@ -10080,7 +10123,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B486" s="1">
         <v>-1</v>
@@ -10100,7 +10143,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B487" s="1">
         <v>-1</v>
@@ -10120,7 +10163,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B488" s="1">
         <v>-100</v>
@@ -10140,7 +10183,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B489" s="1">
         <v>-5</v>
@@ -10160,7 +10203,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B490" s="1">
         <v>-5</v>
@@ -10180,7 +10223,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B491" s="1">
         <v>-2</v>
@@ -10200,7 +10243,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B492" s="1">
         <v>1</v>
@@ -10220,7 +10263,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B493" s="1">
         <v>-100</v>
@@ -10240,7 +10283,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B494" s="1">
         <v>-100</v>
@@ -10260,7 +10303,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B495" s="1">
         <v>-50</v>
@@ -10280,7 +10323,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B496" s="1">
         <v>-10</v>
@@ -10300,7 +10343,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B497" s="1">
         <v>-10</v>
@@ -10320,7 +10363,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B498" s="1">
         <v>-500</v>
@@ -10340,13 +10383,13 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D499" s="1">
         <v>2</v>
@@ -10360,7 +10403,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B500" s="1">
         <v>-5.12</v>
@@ -10414,7 +10457,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B503" s="1">
         <v>-100</v>
@@ -10448,7 +10491,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B505" s="1">
         <v>-10</v>
@@ -10482,7 +10525,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B507" s="1">
         <v>-600</v>
@@ -10499,7 +10542,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B508" s="1">
         <v>-10</v>
@@ -10556,7 +10599,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B511" s="1">
         <v>-100</v>
@@ -10576,7 +10619,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B512" s="1">
         <v>-100</v>
@@ -10656,7 +10699,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B516" s="1">
         <v>-32</v>
@@ -10676,7 +10719,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B517" s="1">
         <v>-600</v>
@@ -10696,7 +10739,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B518" s="1">
         <v>-50</v>
@@ -10716,7 +10759,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B519" s="1">
         <v>-50</v>
@@ -10736,7 +10779,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B520" s="1">
         <v>-5</v>
@@ -10756,7 +10799,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B521" s="1">
         <v>-5.12</v>
@@ -10776,7 +10819,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B522" s="1">
         <v>0</v>
@@ -10796,7 +10839,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B523" s="1">
         <v>0</v>
@@ -10816,7 +10859,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B524" s="1">
         <v>0</v>
@@ -10836,7 +10879,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B525" s="1">
         <v>-100</v>
@@ -10856,7 +10899,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="B526" s="1">
         <v>-10</v>
@@ -10876,7 +10919,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B527" s="1">
         <v>-30</v>
@@ -10893,7 +10936,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B528" s="1">
         <v>-1</v>
@@ -10910,7 +10953,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B529" s="1">
         <v>-1</v>
@@ -10927,7 +10970,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B530" s="1">
         <v>-600</v>
@@ -10944,7 +10987,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B531" s="1">
         <v>-10</v>
@@ -10961,7 +11004,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B532" s="1">
         <v>-5</v>
@@ -10978,7 +11021,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B533" s="1">
         <v>2</v>
@@ -11046,13 +11089,13 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B537" s="2">
         <v>0</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E537" s="1">
         <v>32</v>
@@ -11063,7 +11106,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B538" s="1">
         <v>-5.12</v>
@@ -11097,7 +11140,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B540" s="1">
         <v>-5.12</v>
@@ -11131,7 +11174,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B542" s="1">
         <v>-100</v>
@@ -11165,13 +11208,13 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E544" s="1">
         <v>32</v>
@@ -11182,7 +11225,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B545" s="1">
         <v>-50</v>
@@ -11199,7 +11242,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B546" s="1">
         <v>-50</v>
@@ -11216,7 +11259,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B547" s="1">
         <v>-30</v>
@@ -11233,7 +11276,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B548" s="1">
         <v>-1</v>
@@ -11250,7 +11293,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B549" s="1">
         <v>-1</v>
@@ -11267,7 +11310,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B550" s="1">
         <v>-600</v>
@@ -11284,7 +11327,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B551" s="1">
         <v>-10</v>
@@ -11301,7 +11344,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B552" s="1">
         <v>-5</v>
@@ -11318,7 +11361,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B553" s="1">
         <v>2</v>
@@ -11386,13 +11429,13 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B557" s="2">
         <v>0</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E557" s="1">
         <v>33</v>
@@ -11403,7 +11446,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B558" s="1">
         <v>-5.12</v>
@@ -11437,7 +11480,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B560" s="1">
         <v>-5.12</v>
@@ -11471,7 +11514,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B562" s="1">
         <v>-100</v>
@@ -11505,13 +11548,13 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E564" s="1">
         <v>33</v>
@@ -11522,7 +11565,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B565" s="1">
         <v>-50</v>
@@ -11539,7 +11582,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B566" s="1">
         <v>-50</v>
@@ -11573,7 +11616,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B568" s="1">
         <v>-5.12</v>
@@ -11590,7 +11633,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B569" s="1">
         <v>-5.12</v>
@@ -11624,7 +11667,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B571" s="1">
         <v>-100</v>
@@ -11641,7 +11684,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B572" s="1">
         <v>-5.12</v>
@@ -11658,7 +11701,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B573" s="1">
         <v>-5.12</v>
@@ -11675,7 +11718,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B574" s="1">
         <v>-1</v>
@@ -11692,13 +11735,13 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E575" s="1">
         <v>34</v>
@@ -11709,7 +11752,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B576" s="1">
         <v>-30</v>
@@ -11726,7 +11769,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B577" s="1">
         <v>-1</v>
@@ -11743,7 +11786,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B578" s="1">
         <v>-600</v>
@@ -11760,7 +11803,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B579" s="1">
         <v>-10</v>
@@ -11777,7 +11820,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B580" s="1">
         <v>-5</v>
@@ -11794,7 +11837,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B581" s="1">
         <v>-10</v>
@@ -11811,7 +11854,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B582" s="1">
         <v>-10</v>
@@ -11828,7 +11871,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B583" s="1">
         <v>-5.12</v>
@@ -11879,7 +11922,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B586" s="1">
         <v>-100</v>
@@ -11896,7 +11939,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B587" s="1">
         <v>-5.12</v>
@@ -11930,7 +11973,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B589" s="1">
         <v>-100</v>
@@ -11947,7 +11990,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B590" s="1">
         <v>-100</v>
@@ -11964,7 +12007,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B591" s="1">
         <v>-100</v>
@@ -11981,7 +12024,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B592" s="1">
         <v>-1</v>
@@ -11998,13 +12041,13 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E593" s="1">
         <v>35</v>
@@ -12015,7 +12058,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B594" s="1">
         <v>-30</v>
@@ -12032,7 +12075,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B595" s="1">
         <v>-1</v>
@@ -12049,7 +12092,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B596" s="1">
         <v>-5</v>
@@ -12066,7 +12109,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B597" s="1">
         <v>-50</v>
@@ -12083,7 +12126,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B598" s="1">
         <v>-50</v>
@@ -12100,7 +12143,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B599" s="1">
         <v>-5.12</v>
@@ -12116,7 +12159,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I599"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Metaheuristic-benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Metaheuristic-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ECC2DF-A20C-48F5-AB21-4E328155CDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$599</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="117">
   <si>
     <t>Sphere</t>
   </si>
@@ -134,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shekel's Foxholes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold Stein &amp; Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sum Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exponential</t>
   </si>
   <si>
@@ -238,15 +229,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zettl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Powell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tablet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,9 +304,6 @@
   </si>
   <si>
     <t>Paviani</t>
-  </si>
-  <si>
-    <t>Sinusoidal</t>
   </si>
   <si>
     <t>Ellipsoidal</t>
@@ -442,11 +422,59 @@
     <t>Sinusoidal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Shekel 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shubert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinusoidal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Six Hump Camel Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of different power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum Squares</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tablet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xin She Yang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zakharov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zettl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -821,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -843,22 +871,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,7 +1071,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1">
         <v>-32</v>
@@ -1154,7 +1182,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1">
         <v>-100</v>
@@ -1188,7 +1216,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1">
         <v>-30</v>
@@ -1225,7 +1253,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1">
         <v>-32</v>
@@ -1333,7 +1361,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1">
         <v>-32</v>
@@ -1350,7 +1378,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -1544,7 +1572,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>27</v>
@@ -1564,7 +1592,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1">
         <v>-50</v>
@@ -1624,7 +1652,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>-100</v>
@@ -1684,7 +1712,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1">
         <v>-100</v>
@@ -1764,7 +1792,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1">
         <v>-32</v>
@@ -1844,7 +1872,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1864,7 +1892,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
         <v>-20</v>
@@ -1884,7 +1912,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
         <v>-10</v>
@@ -1904,7 +1932,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1">
         <v>-65</v>
@@ -1924,7 +1952,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B57" s="1">
         <v>-5</v>
@@ -1944,7 +1972,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1">
         <v>-5</v>
@@ -1964,7 +1992,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B59" s="1">
         <v>-5</v>
@@ -1984,7 +2012,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1">
         <v>-2</v>
@@ -2004,7 +2032,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -2044,7 +2072,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2144,7 +2172,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1">
         <v>-100</v>
@@ -2284,7 +2312,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B75" s="1">
         <v>-32</v>
@@ -2364,7 +2392,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1">
         <v>-65</v>
@@ -2384,7 +2412,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>-5</v>
@@ -2404,7 +2432,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B81" s="1">
         <v>-5</v>
@@ -2504,7 +2532,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2604,7 +2632,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B91" s="1">
         <v>-100</v>
@@ -2744,7 +2772,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B98" s="1">
         <v>-32</v>
@@ -2824,7 +2852,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B102" s="1">
         <v>-65</v>
@@ -2844,7 +2872,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B103" s="1">
         <v>-5</v>
@@ -2864,7 +2892,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B104" s="1">
         <v>-5</v>
@@ -3064,7 +3092,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B114" s="1">
         <v>-100</v>
@@ -3164,7 +3192,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B119" s="1">
         <v>-10</v>
@@ -3204,7 +3232,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B121" s="1">
         <v>-32</v>
@@ -3284,7 +3312,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B125" s="1">
         <v>-65</v>
@@ -3304,7 +3332,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B126" s="1">
         <v>-5</v>
@@ -3344,7 +3372,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" s="1">
         <v>-5</v>
@@ -3424,7 +3452,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B132" s="1">
         <v>-5.12</v>
@@ -3444,7 +3472,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B133" s="1">
         <v>-100</v>
@@ -3464,7 +3492,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134" s="1">
         <v>-100</v>
@@ -3504,7 +3532,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B136" s="1">
         <v>-4.5</v>
@@ -3524,7 +3552,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B137" s="1">
         <v>-100</v>
@@ -3584,7 +3612,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B140" s="1">
         <v>-100</v>
@@ -3604,7 +3632,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B141" s="1">
         <v>-32.768000000000001</v>
@@ -3644,7 +3672,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B143" s="1">
         <v>-10</v>
@@ -3664,7 +3692,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B144" s="1">
         <v>-100</v>
@@ -3704,7 +3732,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B146" s="1">
         <v>-100</v>
@@ -3724,7 +3752,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B147" s="1">
         <v>-100</v>
@@ -3764,7 +3792,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B149" s="1">
         <v>-100</v>
@@ -3784,7 +3812,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B150" s="1">
         <v>-10</v>
@@ -3804,7 +3832,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B151" s="1">
         <v>-10</v>
@@ -3918,7 +3946,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B157" s="1">
         <v>-100</v>
@@ -3952,7 +3980,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B159" s="1">
         <v>-32</v>
@@ -4026,7 +4054,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B163" s="1">
         <v>-100</v>
@@ -4126,7 +4154,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B168" s="1">
         <v>-10</v>
@@ -4166,7 +4194,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B170" s="1">
         <v>-1</v>
@@ -4226,7 +4254,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B173" s="1">
         <v>-32</v>
@@ -4306,7 +4334,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B177" s="1">
         <v>-10</v>
@@ -4326,7 +4354,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B178" s="1">
         <v>-10</v>
@@ -4346,7 +4374,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B179" s="1">
         <v>-1</v>
@@ -4386,7 +4414,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B181" s="1">
         <v>-5</v>
@@ -4406,7 +4434,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B182" s="1">
         <v>-5</v>
@@ -4426,7 +4454,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B183" s="1">
         <v>-100</v>
@@ -4446,7 +4474,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B184" s="1">
         <v>-100</v>
@@ -4466,7 +4494,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B185" s="1">
         <v>-100</v>
@@ -4486,7 +4514,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B186" s="1">
         <v>-65.536000000000001</v>
@@ -4506,7 +4534,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B187" s="1">
         <v>-5</v>
@@ -4526,7 +4554,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B188" s="1">
         <v>-5</v>
@@ -4720,7 +4748,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B198" s="1">
         <v>-100</v>
@@ -4805,7 +4833,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B203" s="1">
         <v>-32</v>
@@ -4873,7 +4901,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B207" s="1">
         <v>-65</v>
@@ -4890,7 +4918,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B208" s="1">
         <v>-5</v>
@@ -5015,7 +5043,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B215" s="1">
         <v>-100</v>
@@ -5155,7 +5183,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B222" s="1">
         <v>-32</v>
@@ -5235,7 +5263,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B226" s="1">
         <v>-65</v>
@@ -5255,7 +5283,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B227" s="1">
         <v>-5</v>
@@ -5275,7 +5303,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B228" s="1">
         <v>-5</v>
@@ -5475,7 +5503,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B238" s="1">
         <v>-10</v>
@@ -5515,7 +5543,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B240" s="1">
         <v>-5.12</v>
@@ -5620,7 +5648,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B246" s="1">
         <v>-32</v>
@@ -5677,7 +5705,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B249" s="1">
         <v>-100</v>
@@ -5817,7 +5845,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B256" s="1">
         <v>-32</v>
@@ -5897,7 +5925,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B260" s="1">
         <v>-100</v>
@@ -5917,7 +5945,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B261" s="1">
         <v>-100</v>
@@ -5937,7 +5965,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B262" s="1">
         <v>-5</v>
@@ -5974,7 +6002,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B264" s="1">
         <v>-10</v>
@@ -5991,7 +6019,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B265" s="1">
         <v>-1</v>
@@ -6025,7 +6053,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B267" s="1">
         <v>-10</v>
@@ -6110,7 +6138,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B272" s="1">
         <v>-50</v>
@@ -6149,7 +6177,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E275" s="1">
         <v>19</v>
@@ -6226,7 +6254,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E282" s="1">
         <v>19</v>
@@ -6270,7 +6298,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E286" s="1">
         <v>19</v>
@@ -6281,7 +6309,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E287" s="1">
         <v>19</v>
@@ -6347,7 +6375,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E293" s="1">
         <v>20</v>
@@ -6424,7 +6452,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E300" s="1">
         <v>20</v>
@@ -6446,7 +6474,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E302" s="1">
         <v>20</v>
@@ -6497,7 +6525,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B305" s="1">
         <v>-100</v>
@@ -6637,7 +6665,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B312" s="1">
         <v>-32</v>
@@ -6717,7 +6745,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B316" s="1">
         <v>-65</v>
@@ -6737,7 +6765,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B317" s="1">
         <v>-5</v>
@@ -6757,7 +6785,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B318" s="1">
         <v>-5</v>
@@ -6897,7 +6925,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B325" s="1">
         <v>-100</v>
@@ -7037,7 +7065,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B332" s="1">
         <v>-32</v>
@@ -7117,7 +7145,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B336" s="1">
         <v>-65</v>
@@ -7137,7 +7165,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B337" s="1">
         <v>-5</v>
@@ -7157,7 +7185,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B338" s="1">
         <v>-5</v>
@@ -7237,7 +7265,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B342" s="1">
         <v>0</v>
@@ -7357,7 +7385,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B348" s="1">
         <v>-100</v>
@@ -7497,7 +7525,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B355" s="1">
         <v>-32</v>
@@ -7577,7 +7605,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B359" s="1">
         <v>-65</v>
@@ -7597,7 +7625,7 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B360" s="1">
         <v>-5</v>
@@ -7617,7 +7645,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B361" s="1">
         <v>-5</v>
@@ -7703,7 +7731,7 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B365" s="1">
         <v>0</v>
@@ -7823,7 +7851,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B371" s="1">
         <v>-100</v>
@@ -7963,7 +7991,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B378" s="1">
         <v>-32</v>
@@ -8043,7 +8071,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B382" s="1">
         <v>-65</v>
@@ -8063,7 +8091,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B383" s="1">
         <v>-5</v>
@@ -8143,7 +8171,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B387" s="1">
         <v>0</v>
@@ -8223,7 +8251,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B391" s="1">
         <v>-10</v>
@@ -8243,7 +8271,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B392" s="1">
         <v>-100</v>
@@ -8323,7 +8351,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B396" s="1">
         <v>-100</v>
@@ -8463,7 +8491,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B403" s="1">
         <v>-32</v>
@@ -8543,7 +8571,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B407" s="1">
         <v>-65</v>
@@ -8563,7 +8591,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B408" s="1">
         <v>-5</v>
@@ -8583,7 +8611,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B409" s="1">
         <v>-5</v>
@@ -8623,7 +8651,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B411" s="1">
         <v>0</v>
@@ -8703,7 +8731,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B415" s="1">
         <v>-100</v>
@@ -8763,7 +8791,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B418" s="1">
         <v>-32</v>
@@ -8803,7 +8831,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B420" s="1">
         <v>-5</v>
@@ -8823,7 +8851,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B421" s="1">
         <v>-5</v>
@@ -9003,7 +9031,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B430" s="1">
         <v>-32</v>
@@ -9083,7 +9111,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B434" s="1">
         <v>-100</v>
@@ -9223,7 +9251,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B441" s="1">
         <v>-32</v>
@@ -9303,7 +9331,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B445" s="1">
         <v>-65</v>
@@ -9323,7 +9351,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B446" s="1">
         <v>-5</v>
@@ -9343,7 +9371,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B447" s="1">
         <v>-5</v>
@@ -9423,7 +9451,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B451" s="1">
         <v>0</v>
@@ -9503,7 +9531,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B455" s="1">
         <v>-10</v>
@@ -9523,7 +9551,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B456" s="1">
         <v>-4.5</v>
@@ -9543,7 +9571,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B457" s="1">
         <v>-10</v>
@@ -9563,7 +9591,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B458" s="1">
         <v>-10</v>
@@ -9583,7 +9611,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B459" s="1">
         <v>0</v>
@@ -9603,7 +9631,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B460" s="1">
         <v>-10</v>
@@ -9623,7 +9651,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B461" s="1">
         <v>-100</v>
@@ -9643,7 +9671,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B462" s="1">
         <v>-10</v>
@@ -9663,7 +9691,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B463" s="1">
         <v>-1.2</v>
@@ -9683,7 +9711,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B464" s="1">
         <v>-5</v>
@@ -9743,7 +9771,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B467" s="1">
         <v>-100</v>
@@ -9843,7 +9871,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B472" s="1">
         <v>-100</v>
@@ -9863,7 +9891,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B473" s="1">
         <v>-4</v>
@@ -9883,7 +9911,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B474" s="1">
         <v>-1</v>
@@ -9903,7 +9931,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B475" s="1">
         <v>-100</v>
@@ -9923,7 +9951,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B476" s="1">
         <v>-1</v>
@@ -9943,7 +9971,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B477" s="1">
         <v>-100</v>
@@ -9963,7 +9991,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B478" s="1">
         <v>-1</v>
@@ -9983,7 +10011,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B479" s="1">
         <v>-10</v>
@@ -10003,7 +10031,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B480" s="1">
         <v>-1.2</v>
@@ -10043,7 +10071,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B482" s="1">
         <v>-32</v>
@@ -10123,7 +10151,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B486" s="1">
         <v>-1</v>
@@ -10143,7 +10171,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B487" s="1">
         <v>-1</v>
@@ -10163,7 +10191,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B488" s="1">
         <v>-100</v>
@@ -10203,7 +10231,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B490" s="1">
         <v>-5</v>
@@ -10263,7 +10291,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B493" s="1">
         <v>-100</v>
@@ -10283,7 +10311,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B494" s="1">
         <v>-100</v>
@@ -10303,7 +10331,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B495" s="1">
         <v>-50</v>
@@ -10323,7 +10351,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B496" s="1">
         <v>-10</v>
@@ -10343,7 +10371,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B497" s="1">
         <v>-10</v>
@@ -10363,7 +10391,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B498" s="1">
         <v>-500</v>
@@ -10383,13 +10411,13 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D499" s="1">
         <v>2</v>
@@ -10403,7 +10431,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B500" s="1">
         <v>-5.12</v>
@@ -10457,7 +10485,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B503" s="1">
         <v>-100</v>
@@ -10491,7 +10519,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B505" s="1">
         <v>-10</v>
@@ -10542,7 +10570,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B508" s="1">
         <v>-10</v>
@@ -10599,7 +10627,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B511" s="1">
         <v>-100</v>
@@ -10699,7 +10727,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B516" s="1">
         <v>-32</v>
@@ -10779,7 +10807,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B520" s="1">
         <v>-5</v>
@@ -10799,7 +10827,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B521" s="1">
         <v>-5.12</v>
@@ -10879,7 +10907,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B525" s="1">
         <v>-100</v>
@@ -10899,7 +10927,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B526" s="1">
         <v>-10</v>
@@ -10919,7 +10947,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B527" s="1">
         <v>-30</v>
@@ -10936,7 +10964,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B528" s="1">
         <v>-1</v>
@@ -10953,7 +10981,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B529" s="1">
         <v>-1</v>
@@ -10987,7 +11015,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B531" s="1">
         <v>-10</v>
@@ -11004,7 +11032,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B532" s="1">
         <v>-5</v>
@@ -11021,7 +11049,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B533" s="1">
         <v>2</v>
@@ -11089,7 +11117,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B537" s="2">
         <v>0</v>
@@ -11106,7 +11134,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B538" s="1">
         <v>-5.12</v>
@@ -11140,7 +11168,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B540" s="1">
         <v>-5.12</v>
@@ -11208,13 +11236,13 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E544" s="1">
         <v>32</v>
@@ -11259,7 +11287,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B547" s="1">
         <v>-30</v>
@@ -11276,7 +11304,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B548" s="1">
         <v>-1</v>
@@ -11293,7 +11321,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B549" s="1">
         <v>-1</v>
@@ -11327,7 +11355,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B551" s="1">
         <v>-10</v>
@@ -11344,7 +11372,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B552" s="1">
         <v>-5</v>
@@ -11361,7 +11389,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B553" s="1">
         <v>2</v>
@@ -11429,7 +11457,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B557" s="2">
         <v>0</v>
@@ -11446,7 +11474,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B558" s="1">
         <v>-5.12</v>
@@ -11480,7 +11508,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B560" s="1">
         <v>-5.12</v>
@@ -11548,13 +11576,13 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E564" s="1">
         <v>33</v>
@@ -11616,7 +11644,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B568" s="1">
         <v>-5.12</v>
@@ -11633,7 +11661,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B569" s="1">
         <v>-5.12</v>
@@ -11684,7 +11712,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B572" s="1">
         <v>-5.12</v>
@@ -11701,7 +11729,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B573" s="1">
         <v>-5.12</v>
@@ -11718,7 +11746,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B574" s="1">
         <v>-1</v>
@@ -11735,13 +11763,13 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E575" s="1">
         <v>34</v>
@@ -11752,7 +11780,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B576" s="1">
         <v>-30</v>
@@ -11769,7 +11797,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B577" s="1">
         <v>-1</v>
@@ -11803,7 +11831,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B579" s="1">
         <v>-10</v>
@@ -11820,7 +11848,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B580" s="1">
         <v>-5</v>
@@ -11871,7 +11899,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B583" s="1">
         <v>-5.12</v>
@@ -11922,7 +11950,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B586" s="1">
         <v>-100</v>
@@ -11939,7 +11967,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B587" s="1">
         <v>-5.12</v>
@@ -11990,7 +12018,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B590" s="1">
         <v>-100</v>
@@ -12007,7 +12035,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B591" s="1">
         <v>-100</v>
@@ -12024,7 +12052,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B592" s="1">
         <v>-1</v>
@@ -12041,13 +12069,13 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E593" s="1">
         <v>35</v>
@@ -12058,7 +12086,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B594" s="1">
         <v>-30</v>
@@ -12075,7 +12103,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B595" s="1">
         <v>-1</v>
@@ -12092,7 +12120,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B596" s="1">
         <v>-5</v>
@@ -12143,7 +12171,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B599" s="1">
         <v>-5.12</v>
@@ -12159,6 +12187,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I599"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quadric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rosenbrock</t>
   </si>
   <si>
@@ -52,10 +48,6 @@
   </si>
   <si>
     <t>Step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quadric Noise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -470,6 +462,13 @@
     <t>Zettl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Quartic Noise</t>
+  </si>
+  <si>
+    <t>Quartic Noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -850,10 +849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -871,25 +871,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -931,7 +931,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>-100</v>
@@ -949,9 +949,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>-10</v>
@@ -969,9 +969,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>-100</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1">
         <v>-1.28</v>
@@ -1009,9 +1009,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>-500</v>
@@ -1029,9 +1029,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>-5.12</v>
@@ -1049,9 +1049,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>-5.12</v>
@@ -1069,9 +1069,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>-32</v>
@@ -1089,9 +1089,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>-600</v>
@@ -1109,9 +1109,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>-50</v>
@@ -1129,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,9 +1146,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>-30</v>
@@ -1163,9 +1163,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>-5.12</v>
@@ -1180,9 +1180,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1">
         <v>-100</v>
@@ -1197,9 +1197,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>-600</v>
@@ -1214,9 +1214,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>-30</v>
@@ -1231,9 +1231,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>-600</v>
@@ -1251,9 +1251,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1">
         <v>-32</v>
@@ -1271,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1308,9 +1308,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <v>-30</v>
@@ -1325,9 +1325,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
         <v>-5.12</v>
@@ -1342,9 +1342,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
         <v>-600</v>
@@ -1359,9 +1359,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>-32</v>
@@ -1376,15 +1376,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -1393,9 +1393,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1">
         <v>-500</v>
@@ -1410,7 +1410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1430,9 +1430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>-65.536000000000001</v>
@@ -1450,9 +1450,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1">
         <v>-2.048</v>
@@ -1470,9 +1470,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
         <v>-5.12</v>
@@ -1490,9 +1490,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
         <v>-1.28</v>
@@ -1510,9 +1510,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1">
         <v>-50</v>
@@ -1530,9 +1530,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1">
         <v>-500</v>
@@ -1550,9 +1550,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
         <v>-600</v>
@@ -1570,15 +1570,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1">
         <v>30</v>
@@ -1590,9 +1590,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1">
         <v>-50</v>
@@ -1610,7 +1610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -1650,9 +1650,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
         <v>-100</v>
@@ -1670,9 +1670,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1">
         <v>-100</v>
@@ -1690,9 +1690,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1">
         <v>-30</v>
@@ -1710,9 +1710,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1">
         <v>-100</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B46" s="1">
         <v>-1.28</v>
@@ -1750,9 +1750,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <v>-500</v>
@@ -1770,9 +1770,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <v>-5.12</v>
@@ -1790,9 +1790,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1">
         <v>-32</v>
@@ -1810,9 +1810,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1">
         <v>-600</v>
@@ -1830,9 +1830,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>-50</v>
@@ -1850,9 +1850,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="1">
         <v>-50</v>
@@ -1870,15 +1870,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1">
         <v>30</v>
@@ -1890,9 +1890,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1">
         <v>-20</v>
@@ -1910,9 +1910,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1">
         <v>-10</v>
@@ -1930,9 +1930,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1">
         <v>-65</v>
@@ -1950,9 +1950,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1">
         <v>-5</v>
@@ -1970,9 +1970,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B58" s="1">
         <v>-5</v>
@@ -1990,9 +1990,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1">
         <v>-5</v>
@@ -2010,9 +2010,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1">
         <v>-2</v>
@@ -2030,9 +2030,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -2050,9 +2050,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -2070,9 +2070,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -2090,9 +2090,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -2110,9 +2110,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -2170,9 +2170,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68" s="1">
         <v>-100</v>
@@ -2190,9 +2190,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B69" s="1">
         <v>-100</v>
@@ -2210,9 +2210,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1">
         <v>-30</v>
@@ -2230,9 +2230,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1">
         <v>-100</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B72" s="1">
         <v>-1.28</v>
@@ -2270,9 +2270,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
         <v>-500</v>
@@ -2290,9 +2290,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
         <v>-5.12</v>
@@ -2310,9 +2310,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1">
         <v>-32</v>
@@ -2330,9 +2330,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B76" s="1">
         <v>-600</v>
@@ -2350,9 +2350,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B77" s="1">
         <v>-50</v>
@@ -2370,9 +2370,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" s="1">
         <v>-50</v>
@@ -2390,9 +2390,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B79" s="1">
         <v>-65</v>
@@ -2410,9 +2410,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1">
         <v>-5</v>
@@ -2430,9 +2430,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B81" s="1">
         <v>-5</v>
@@ -2450,9 +2450,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B82" s="1">
         <v>-5</v>
@@ -2470,9 +2470,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1">
         <v>-2</v>
@@ -2490,9 +2490,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -2510,9 +2510,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2530,9 +2530,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2550,9 +2550,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -2570,9 +2570,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
@@ -2630,9 +2630,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B91" s="1">
         <v>-100</v>
@@ -2650,9 +2650,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B92" s="1">
         <v>-100</v>
@@ -2670,9 +2670,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="1">
         <v>-30</v>
@@ -2690,9 +2690,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" s="1">
         <v>-100</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B95" s="1">
         <v>-1.28</v>
@@ -2730,9 +2730,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
         <v>-500</v>
@@ -2750,9 +2750,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
         <v>-5.12</v>
@@ -2770,9 +2770,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B98" s="1">
         <v>-32</v>
@@ -2790,9 +2790,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1">
         <v>-600</v>
@@ -2810,9 +2810,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B100" s="1">
         <v>-50</v>
@@ -2830,9 +2830,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B101" s="1">
         <v>-50</v>
@@ -2850,9 +2850,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B102" s="1">
         <v>-65</v>
@@ -2870,9 +2870,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B103" s="1">
         <v>-5</v>
@@ -2890,9 +2890,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B104" s="1">
         <v>-5</v>
@@ -2910,9 +2910,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B105" s="1">
         <v>-5</v>
@@ -2930,9 +2930,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B106" s="1">
         <v>-2</v>
@@ -2950,9 +2950,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -2970,9 +2970,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -2990,9 +2990,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -3010,9 +3010,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -3030,9 +3030,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -3090,9 +3090,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B114" s="1">
         <v>-100</v>
@@ -3110,9 +3110,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B115" s="1">
         <v>-100</v>
@@ -3130,9 +3130,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" s="1">
         <v>-30</v>
@@ -3150,9 +3150,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" s="1">
         <v>-100</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B118" s="1">
         <v>-1.28</v>
@@ -3190,9 +3190,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B119" s="1">
         <v>-10</v>
@@ -3210,9 +3210,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" s="1">
         <v>-5.12</v>
@@ -3230,9 +3230,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B121" s="1">
         <v>-32</v>
@@ -3250,9 +3250,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B122" s="1">
         <v>-600</v>
@@ -3270,9 +3270,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B123" s="1">
         <v>-50</v>
@@ -3290,9 +3290,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B124" s="1">
         <v>-5</v>
@@ -3310,9 +3310,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B125" s="1">
         <v>-65</v>
@@ -3330,9 +3330,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B126" s="1">
         <v>-5</v>
@@ -3350,9 +3350,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B127" s="1">
         <v>-5</v>
@@ -3370,9 +3370,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B128" s="1">
         <v>-5</v>
@@ -3390,9 +3390,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -3410,9 +3410,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -3430,9 +3430,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -3450,9 +3450,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B132" s="1">
         <v>-5.12</v>
@@ -3470,9 +3470,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B133" s="1">
         <v>-100</v>
@@ -3490,9 +3490,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B134" s="1">
         <v>-100</v>
@@ -3510,7 +3510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -3530,9 +3530,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B136" s="1">
         <v>-4.5</v>
@@ -3550,9 +3550,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B137" s="1">
         <v>-100</v>
@@ -3570,9 +3570,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B138" s="1">
         <v>-100</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B139" s="1">
         <v>-1.28</v>
@@ -3610,9 +3610,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B140" s="1">
         <v>-100</v>
@@ -3630,9 +3630,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B141" s="1">
         <v>-32.768000000000001</v>
@@ -3650,9 +3650,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B142" s="1">
         <v>-600</v>
@@ -3670,9 +3670,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B143" s="1">
         <v>-10</v>
@@ -3690,9 +3690,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B144" s="1">
         <v>-100</v>
@@ -3710,9 +3710,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B145" s="1">
         <v>-5.12</v>
@@ -3730,9 +3730,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B146" s="1">
         <v>-100</v>
@@ -3750,9 +3750,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B147" s="1">
         <v>-100</v>
@@ -3770,9 +3770,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="1">
         <v>-10</v>
@@ -3790,9 +3790,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B149" s="1">
         <v>-100</v>
@@ -3810,9 +3810,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B150" s="1">
         <v>-10</v>
@@ -3830,9 +3830,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B151" s="1">
         <v>-10</v>
@@ -3850,9 +3850,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B152" s="1">
         <v>-10</v>
@@ -3870,7 +3870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>2</v>
       </c>
@@ -3890,9 +3890,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B154" s="1">
         <v>-500</v>
@@ -3910,7 +3910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>2</v>
       </c>
@@ -3944,9 +3944,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B157" s="1">
         <v>-100</v>
@@ -3961,9 +3961,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B158" s="1">
         <v>-5.12</v>
@@ -3978,9 +3978,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B159" s="1">
         <v>-32</v>
@@ -3995,9 +3995,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B160" s="1">
         <v>-50</v>
@@ -4012,7 +4012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
@@ -4052,9 +4052,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B163" s="1">
         <v>-100</v>
@@ -4072,9 +4072,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B164" s="1">
         <v>-100</v>
@@ -4092,9 +4092,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1">
         <v>-30</v>
@@ -4112,9 +4112,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B166" s="1">
         <v>-100</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B167" s="1">
         <v>-1.28</v>
@@ -4152,9 +4152,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B168" s="1">
         <v>-10</v>
@@ -4172,9 +4172,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B169" s="1">
         <v>-1.28</v>
@@ -4192,9 +4192,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B170" s="1">
         <v>-1</v>
@@ -4212,9 +4212,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B171" s="1">
         <v>-500</v>
@@ -4232,9 +4232,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B172" s="1">
         <v>-5.12</v>
@@ -4252,9 +4252,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B173" s="1">
         <v>-32</v>
@@ -4272,9 +4272,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B174" s="1">
         <v>-600</v>
@@ -4292,9 +4292,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B175" s="1">
         <v>-50</v>
@@ -4312,9 +4312,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B176" s="1">
         <v>-50</v>
@@ -4332,9 +4332,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B177" s="1">
         <v>-10</v>
@@ -4352,9 +4352,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B178" s="1">
         <v>-10</v>
@@ -4372,9 +4372,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B179" s="1">
         <v>-1</v>
@@ -4392,9 +4392,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B180" s="1">
         <v>-5</v>
@@ -4412,9 +4412,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B181" s="1">
         <v>-5</v>
@@ -4432,9 +4432,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B182" s="1">
         <v>-5</v>
@@ -4452,9 +4452,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B183" s="1">
         <v>-100</v>
@@ -4472,9 +4472,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B184" s="1">
         <v>-100</v>
@@ -4492,9 +4492,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B185" s="1">
         <v>-100</v>
@@ -4512,9 +4512,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B186" s="1">
         <v>-65.536000000000001</v>
@@ -4532,9 +4532,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B187" s="1">
         <v>-5</v>
@@ -4552,9 +4552,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B188" s="1">
         <v>-5</v>
@@ -4572,9 +4572,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B189" s="1">
         <v>-5</v>
@@ -4592,9 +4592,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B190" s="1">
         <v>-2</v>
@@ -4612,9 +4612,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B191" s="1">
         <v>1</v>
@@ -4632,9 +4632,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -4652,9 +4652,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
@@ -4672,9 +4672,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
@@ -4692,9 +4692,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
@@ -4746,9 +4746,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B198" s="1">
         <v>-100</v>
@@ -4763,9 +4763,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B199" s="1">
         <v>-100</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B200" s="1">
         <v>-1.28</v>
@@ -4797,9 +4797,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B201" s="1">
         <v>-500</v>
@@ -4814,9 +4814,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B202" s="1">
         <v>-5.12</v>
@@ -4831,9 +4831,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B203" s="1">
         <v>-32</v>
@@ -4848,9 +4848,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B204" s="1">
         <v>-600</v>
@@ -4865,9 +4865,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B205" s="1">
         <v>-50</v>
@@ -4882,9 +4882,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B206" s="1">
         <v>-50</v>
@@ -4899,9 +4899,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B207" s="1">
         <v>-65</v>
@@ -4916,9 +4916,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B208" s="1">
         <v>-5</v>
@@ -4933,9 +4933,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B209" s="1">
         <v>-2</v>
@@ -4950,9 +4950,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B210" s="1">
         <v>0</v>
@@ -4967,9 +4967,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B211" s="1">
         <v>0</v>
@@ -4984,9 +4984,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B212" s="1">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -5041,9 +5041,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B215" s="1">
         <v>-100</v>
@@ -5061,9 +5061,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B216" s="1">
         <v>-100</v>
@@ -5081,9 +5081,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B217" s="1">
         <v>-30</v>
@@ -5101,9 +5101,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B218" s="1">
         <v>-100</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B219" s="1">
         <v>-1.28</v>
@@ -5141,9 +5141,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B220" s="1">
         <v>-500</v>
@@ -5161,9 +5161,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B221" s="1">
         <v>-5.12</v>
@@ -5181,9 +5181,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B222" s="1">
         <v>-32</v>
@@ -5201,9 +5201,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B223" s="1">
         <v>-600</v>
@@ -5221,9 +5221,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B224" s="1">
         <v>-50</v>
@@ -5241,9 +5241,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B225" s="1">
         <v>-50</v>
@@ -5261,9 +5261,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B226" s="1">
         <v>-65</v>
@@ -5281,9 +5281,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B227" s="1">
         <v>-5</v>
@@ -5301,9 +5301,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B228" s="1">
         <v>-5</v>
@@ -5321,9 +5321,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B229" s="1">
         <v>-5</v>
@@ -5341,9 +5341,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B230" s="1">
         <v>-2</v>
@@ -5361,9 +5361,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B231" s="1">
         <v>1</v>
@@ -5381,9 +5381,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -5401,9 +5401,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
@@ -5421,9 +5421,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B234" s="1">
         <v>0</v>
@@ -5441,9 +5441,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>2</v>
       </c>
@@ -5501,9 +5501,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B238" s="1">
         <v>-10</v>
@@ -5521,9 +5521,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B239" s="1">
         <v>-5.12</v>
@@ -5541,9 +5541,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B240" s="1">
         <v>-5.12</v>
@@ -5561,7 +5561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -5595,9 +5595,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B243" s="1">
         <v>-30</v>
@@ -5612,9 +5612,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B244" s="1">
         <v>-5.12</v>
@@ -5629,9 +5629,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B245" s="1">
         <v>-600</v>
@@ -5646,9 +5646,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B246" s="1">
         <v>-32</v>
@@ -5663,7 +5663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>1</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>2</v>
       </c>
@@ -5703,9 +5703,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B249" s="1">
         <v>-100</v>
@@ -5723,9 +5723,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B250" s="1">
         <v>-100</v>
@@ -5743,9 +5743,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B251" s="1">
         <v>-30</v>
@@ -5763,9 +5763,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B252" s="1">
         <v>-100</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B253" s="1">
         <v>-1.28</v>
@@ -5803,9 +5803,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B254" s="1">
         <v>-500</v>
@@ -5823,9 +5823,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B255" s="1">
         <v>-5.12</v>
@@ -5843,9 +5843,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B256" s="1">
         <v>-32</v>
@@ -5863,9 +5863,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B257" s="1">
         <v>-600</v>
@@ -5883,9 +5883,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B258" s="1">
         <v>-50</v>
@@ -5903,9 +5903,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B259" s="1">
         <v>-50</v>
@@ -5923,9 +5923,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B260" s="1">
         <v>-100</v>
@@ -5943,9 +5943,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B261" s="1">
         <v>-100</v>
@@ -5963,9 +5963,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B262" s="1">
         <v>-5</v>
@@ -5983,7 +5983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>1</v>
       </c>
@@ -6000,9 +6000,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B264" s="1">
         <v>-10</v>
@@ -6017,9 +6017,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B265" s="1">
         <v>-1</v>
@@ -6034,7 +6034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>2</v>
       </c>
@@ -6051,9 +6051,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B267" s="1">
         <v>-10</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B268" s="1">
         <v>-1.28</v>
@@ -6085,9 +6085,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B269" s="1">
         <v>-5</v>
@@ -6102,9 +6102,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B270" s="1">
         <v>-5.12</v>
@@ -6119,9 +6119,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B271" s="1">
         <v>-600</v>
@@ -6136,9 +6136,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B272" s="1">
         <v>-50</v>
@@ -6153,7 +6153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>1</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
@@ -6175,9 +6175,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E275" s="1">
         <v>19</v>
@@ -6186,9 +6186,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E276" s="1">
         <v>19</v>
@@ -6197,9 +6197,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E277" s="1">
         <v>19</v>
@@ -6208,9 +6208,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E278" s="1">
         <v>19</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="E279" s="1">
         <v>19</v>
@@ -6230,9 +6230,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E280" s="1">
         <v>19</v>
@@ -6241,9 +6241,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E281" s="1">
         <v>19</v>
@@ -6252,9 +6252,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E282" s="1">
         <v>19</v>
@@ -6263,9 +6263,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E283" s="1">
         <v>19</v>
@@ -6274,9 +6274,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E284" s="1">
         <v>19</v>
@@ -6285,9 +6285,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E285" s="1">
         <v>19</v>
@@ -6296,9 +6296,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E286" s="1">
         <v>19</v>
@@ -6307,9 +6307,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E287" s="1">
         <v>19</v>
@@ -6318,9 +6318,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E288" s="1">
         <v>19</v>
@@ -6329,9 +6329,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E289" s="1">
         <v>19</v>
@@ -6340,9 +6340,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E290" s="1">
         <v>19</v>
@@ -6351,7 +6351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
@@ -6373,9 +6373,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E293" s="1">
         <v>20</v>
@@ -6384,9 +6384,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E294" s="1">
         <v>20</v>
@@ -6395,9 +6395,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E295" s="1">
         <v>20</v>
@@ -6406,9 +6406,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E296" s="1">
         <v>20</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="E297" s="1">
         <v>20</v>
@@ -6428,9 +6428,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E298" s="1">
         <v>20</v>
@@ -6439,9 +6439,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E299" s="1">
         <v>20</v>
@@ -6450,9 +6450,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E300" s="1">
         <v>20</v>
@@ -6461,9 +6461,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E301" s="1">
         <v>20</v>
@@ -6472,9 +6472,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E302" s="1">
         <v>20</v>
@@ -6483,7 +6483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>2</v>
       </c>
@@ -6523,9 +6523,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B305" s="1">
         <v>-100</v>
@@ -6543,9 +6543,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B306" s="1">
         <v>-100</v>
@@ -6563,9 +6563,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B307" s="1">
         <v>-30</v>
@@ -6583,9 +6583,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B308" s="1">
         <v>-100</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B309" s="1">
         <v>-1.28</v>
@@ -6623,9 +6623,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B310" s="1">
         <v>-500</v>
@@ -6643,9 +6643,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B311" s="1">
         <v>-5.12</v>
@@ -6663,9 +6663,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B312" s="1">
         <v>-32</v>
@@ -6683,9 +6683,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B313" s="1">
         <v>-600</v>
@@ -6703,9 +6703,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B314" s="1">
         <v>-50</v>
@@ -6723,9 +6723,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B315" s="1">
         <v>-50</v>
@@ -6743,9 +6743,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B316" s="1">
         <v>-65</v>
@@ -6763,9 +6763,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B317" s="1">
         <v>-5</v>
@@ -6783,9 +6783,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B318" s="1">
         <v>-5</v>
@@ -6803,9 +6803,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B319" s="1">
         <v>-5</v>
@@ -6823,9 +6823,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B320" s="1">
         <v>-2</v>
@@ -6843,9 +6843,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B321" s="1">
         <v>1</v>
@@ -6863,9 +6863,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B322" s="1">
         <v>0</v>
@@ -6883,7 +6883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>1</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -6923,9 +6923,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B325" s="1">
         <v>-100</v>
@@ -6943,9 +6943,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B326" s="1">
         <v>-100</v>
@@ -6963,9 +6963,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B327" s="1">
         <v>-30</v>
@@ -6983,9 +6983,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B328" s="1">
         <v>-100</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B329" s="1">
         <v>-1.28</v>
@@ -7023,9 +7023,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B330" s="1">
         <v>-500</v>
@@ -7043,9 +7043,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B331" s="1">
         <v>-5.12</v>
@@ -7063,9 +7063,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B332" s="1">
         <v>-32</v>
@@ -7083,9 +7083,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B333" s="1">
         <v>-600</v>
@@ -7103,9 +7103,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B334" s="1">
         <v>-50</v>
@@ -7123,9 +7123,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B335" s="1">
         <v>-50</v>
@@ -7143,9 +7143,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B336" s="1">
         <v>-65</v>
@@ -7163,9 +7163,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B337" s="1">
         <v>-5</v>
@@ -7183,9 +7183,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B338" s="1">
         <v>-5</v>
@@ -7203,9 +7203,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B339" s="1">
         <v>-5</v>
@@ -7223,9 +7223,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B340" s="1">
         <v>-2</v>
@@ -7243,9 +7243,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B341" s="1">
         <v>1</v>
@@ -7263,9 +7263,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B342" s="1">
         <v>0</v>
@@ -7283,9 +7283,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B343" s="1">
         <v>0</v>
@@ -7303,9 +7303,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B344" s="1">
         <v>0</v>
@@ -7323,9 +7323,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B345" s="1">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>1</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>2</v>
       </c>
@@ -7383,9 +7383,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B348" s="1">
         <v>-100</v>
@@ -7403,9 +7403,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B349" s="1">
         <v>-100</v>
@@ -7423,9 +7423,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B350" s="1">
         <v>-100</v>
@@ -7443,9 +7443,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B351" s="1">
         <v>-100</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B352" s="1">
         <v>-100</v>
@@ -7483,9 +7483,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B353" s="1">
         <v>-500</v>
@@ -7503,9 +7503,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B354" s="1">
         <v>-5.12</v>
@@ -7523,9 +7523,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B355" s="1">
         <v>-32</v>
@@ -7543,9 +7543,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B356" s="1">
         <v>-600</v>
@@ -7563,9 +7563,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B357" s="1">
         <v>-50</v>
@@ -7583,9 +7583,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B358" s="1">
         <v>-50</v>
@@ -7603,9 +7603,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B359" s="1">
         <v>-65</v>
@@ -7623,9 +7623,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B360" s="1">
         <v>-5</v>
@@ -7643,9 +7643,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B361" s="1">
         <v>-5</v>
@@ -7663,9 +7663,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B362" s="1">
         <v>-5</v>
@@ -7689,9 +7689,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B363" s="1">
         <v>-2</v>
@@ -7709,9 +7709,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B364" s="1">
         <v>1</v>
@@ -7729,9 +7729,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B365" s="1">
         <v>0</v>
@@ -7749,9 +7749,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B366" s="1">
         <v>0</v>
@@ -7769,9 +7769,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B367" s="1">
         <v>0</v>
@@ -7789,9 +7789,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B368" s="1">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>1</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>2</v>
       </c>
@@ -7849,9 +7849,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B371" s="1">
         <v>-100</v>
@@ -7869,9 +7869,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B372" s="1">
         <v>-100</v>
@@ -7889,9 +7889,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B373" s="1">
         <v>-30</v>
@@ -7909,9 +7909,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B374" s="1">
         <v>-10</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B375" s="1">
         <v>-1.28</v>
@@ -7949,9 +7949,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B376" s="1">
         <v>-500</v>
@@ -7969,9 +7969,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B377" s="1">
         <v>-5.12</v>
@@ -7989,9 +7989,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B378" s="1">
         <v>-32</v>
@@ -8009,9 +8009,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B379" s="1">
         <v>-600</v>
@@ -8029,9 +8029,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B380" s="1">
         <v>-50</v>
@@ -8049,9 +8049,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B381" s="1">
         <v>-50</v>
@@ -8069,9 +8069,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B382" s="1">
         <v>-65</v>
@@ -8089,9 +8089,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B383" s="1">
         <v>-5</v>
@@ -8109,9 +8109,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B384" s="1">
         <v>-5</v>
@@ -8129,9 +8129,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B385" s="1">
         <v>-2</v>
@@ -8149,9 +8149,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B386" s="1">
         <v>1</v>
@@ -8169,9 +8169,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B387" s="1">
         <v>0</v>
@@ -8189,9 +8189,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B388" s="1">
         <v>0</v>
@@ -8209,9 +8209,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B389" s="1">
         <v>0</v>
@@ -8229,9 +8229,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B390" s="1">
         <v>0</v>
@@ -8249,9 +8249,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B391" s="1">
         <v>-10</v>
@@ -8269,9 +8269,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B392" s="1">
         <v>-100</v>
@@ -8289,9 +8289,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B393" s="1">
         <v>-5</v>
@@ -8309,7 +8309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>1</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>2</v>
       </c>
@@ -8349,9 +8349,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B396" s="1">
         <v>-100</v>
@@ -8369,9 +8369,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B397" s="1">
         <v>-100</v>
@@ -8389,9 +8389,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B398" s="1">
         <v>-30</v>
@@ -8409,9 +8409,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B399" s="1">
         <v>-100</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B400" s="1">
         <v>-1.28</v>
@@ -8449,9 +8449,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B401" s="1">
         <v>-500</v>
@@ -8469,9 +8469,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B402" s="1">
         <v>-5.12</v>
@@ -8489,9 +8489,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B403" s="1">
         <v>-32</v>
@@ -8509,9 +8509,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B404" s="1">
         <v>-600</v>
@@ -8529,9 +8529,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B405" s="1">
         <v>-50</v>
@@ -8549,9 +8549,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B406" s="1">
         <v>-50</v>
@@ -8569,9 +8569,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B407" s="1">
         <v>-65</v>
@@ -8589,9 +8589,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B408" s="1">
         <v>-5</v>
@@ -8609,9 +8609,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B409" s="1">
         <v>-5</v>
@@ -8629,9 +8629,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B410" s="1">
         <v>1</v>
@@ -8649,9 +8649,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B411" s="1">
         <v>0</v>
@@ -8669,9 +8669,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B412" s="1">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>1</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>2</v>
       </c>
@@ -8729,9 +8729,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B415" s="1">
         <v>-100</v>
@@ -8749,9 +8749,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B416" s="1">
         <v>-100</v>
@@ -8769,9 +8769,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B417" s="1">
         <v>-5.12</v>
@@ -8789,9 +8789,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B418" s="1">
         <v>-32</v>
@@ -8809,9 +8809,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B419" s="1">
         <v>-600</v>
@@ -8829,9 +8829,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B420" s="1">
         <v>-5</v>
@@ -8849,9 +8849,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B421" s="1">
         <v>-5</v>
@@ -8869,9 +8869,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B422" s="1">
         <v>-5</v>
@@ -8889,7 +8889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>1</v>
       </c>
@@ -8909,9 +8909,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B424" s="1">
         <v>-50</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B425" s="1">
         <v>-1.28</v>
@@ -8949,9 +8949,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B426" s="1">
         <v>-30</v>
@@ -8969,9 +8969,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B427" s="1">
         <v>-5.12</v>
@@ -8989,9 +8989,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B428" s="1">
         <v>-600</v>
@@ -9009,9 +9009,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B429" s="1">
         <v>-100</v>
@@ -9029,9 +9029,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B430" s="1">
         <v>-32</v>
@@ -9049,9 +9049,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B431" s="1">
         <v>-10</v>
@@ -9069,7 +9069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>1</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>2</v>
       </c>
@@ -9109,9 +9109,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B434" s="1">
         <v>-100</v>
@@ -9129,9 +9129,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B435" s="1">
         <v>-100</v>
@@ -9149,9 +9149,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B436" s="1">
         <v>-30</v>
@@ -9169,9 +9169,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B437" s="1">
         <v>-100</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B438" s="1">
         <v>-1.28</v>
@@ -9209,9 +9209,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B439" s="1">
         <v>-500</v>
@@ -9229,9 +9229,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B440" s="1">
         <v>-5.12</v>
@@ -9249,9 +9249,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B441" s="1">
         <v>-32</v>
@@ -9269,9 +9269,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B442" s="1">
         <v>-600</v>
@@ -9289,9 +9289,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B443" s="1">
         <v>-50</v>
@@ -9309,9 +9309,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B444" s="1">
         <v>-50</v>
@@ -9329,9 +9329,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B445" s="1">
         <v>-65</v>
@@ -9349,9 +9349,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B446" s="1">
         <v>-5</v>
@@ -9369,9 +9369,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B447" s="1">
         <v>-5</v>
@@ -9389,9 +9389,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B448" s="1">
         <v>-5</v>
@@ -9409,9 +9409,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B449" s="1">
         <v>-2</v>
@@ -9429,9 +9429,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B450" s="1">
         <v>1</v>
@@ -9449,9 +9449,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B451" s="1">
         <v>0</v>
@@ -9469,9 +9469,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B452" s="1">
         <v>0</v>
@@ -9489,9 +9489,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B453" s="1">
         <v>0</v>
@@ -9509,9 +9509,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B454" s="1">
         <v>0</v>
@@ -9529,9 +9529,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B455" s="1">
         <v>-10</v>
@@ -9549,9 +9549,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B456" s="1">
         <v>-4.5</v>
@@ -9569,9 +9569,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B457" s="1">
         <v>-10</v>
@@ -9589,9 +9589,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B458" s="1">
         <v>-10</v>
@@ -9609,15 +9609,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B459" s="1">
         <v>0</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D459" s="1">
         <v>30</v>
@@ -9629,9 +9629,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B460" s="1">
         <v>-10</v>
@@ -9649,9 +9649,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B461" s="1">
         <v>-100</v>
@@ -9669,9 +9669,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B462" s="1">
         <v>-10</v>
@@ -9689,9 +9689,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B463" s="1">
         <v>-1.2</v>
@@ -9709,9 +9709,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B464" s="1">
         <v>-5</v>
@@ -9729,7 +9729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>1</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>2</v>
       </c>
@@ -9769,9 +9769,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B467" s="1">
         <v>-100</v>
@@ -9789,9 +9789,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B468" s="1">
         <v>-100</v>
@@ -9809,9 +9809,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B469" s="1">
         <v>-30</v>
@@ -9829,9 +9829,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B470" s="1">
         <v>-100</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B471" s="1">
         <v>-1.28</v>
@@ -9869,9 +9869,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B472" s="1">
         <v>-100</v>
@@ -9889,9 +9889,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B473" s="1">
         <v>-4</v>
@@ -9909,9 +9909,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B474" s="1">
         <v>-1</v>
@@ -9929,9 +9929,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B475" s="1">
         <v>-100</v>
@@ -9949,9 +9949,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B476" s="1">
         <v>-1</v>
@@ -9969,9 +9969,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B477" s="1">
         <v>-100</v>
@@ -9989,9 +9989,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B478" s="1">
         <v>-1</v>
@@ -10009,9 +10009,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B479" s="1">
         <v>-10</v>
@@ -10029,9 +10029,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B480" s="1">
         <v>-1.2</v>
@@ -10049,9 +10049,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B481" s="1">
         <v>-5.12</v>
@@ -10069,9 +10069,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B482" s="1">
         <v>-32</v>
@@ -10089,9 +10089,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B483" s="1">
         <v>-600</v>
@@ -10109,9 +10109,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B484" s="1">
         <v>-50</v>
@@ -10129,9 +10129,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B485" s="1">
         <v>-50</v>
@@ -10149,9 +10149,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B486" s="1">
         <v>-1</v>
@@ -10169,9 +10169,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B487" s="1">
         <v>-1</v>
@@ -10189,9 +10189,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B488" s="1">
         <v>-100</v>
@@ -10209,9 +10209,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B489" s="1">
         <v>-5</v>
@@ -10229,9 +10229,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B490" s="1">
         <v>-5</v>
@@ -10249,9 +10249,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B491" s="1">
         <v>-2</v>
@@ -10269,9 +10269,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B492" s="1">
         <v>1</v>
@@ -10289,9 +10289,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B493" s="1">
         <v>-100</v>
@@ -10309,9 +10309,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B494" s="1">
         <v>-100</v>
@@ -10329,9 +10329,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B495" s="1">
         <v>-50</v>
@@ -10349,9 +10349,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B496" s="1">
         <v>-10</v>
@@ -10369,9 +10369,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B497" s="1">
         <v>-10</v>
@@ -10389,9 +10389,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B498" s="1">
         <v>-500</v>
@@ -10409,15 +10409,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C499" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D499" s="1">
         <v>2</v>
@@ -10429,9 +10429,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B500" s="1">
         <v>-5.12</v>
@@ -10449,7 +10449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>2</v>
       </c>
@@ -10483,9 +10483,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B503" s="1">
         <v>-100</v>
@@ -10500,9 +10500,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B504" s="1">
         <v>-30</v>
@@ -10517,9 +10517,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B505" s="1">
         <v>-10</v>
@@ -10534,9 +10534,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B506" s="1">
         <v>-5.12</v>
@@ -10551,9 +10551,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B507" s="1">
         <v>-600</v>
@@ -10568,9 +10568,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B508" s="1">
         <v>-10</v>
@@ -10585,7 +10585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>2</v>
       </c>
@@ -10625,9 +10625,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B511" s="1">
         <v>-100</v>
@@ -10645,9 +10645,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B512" s="1">
         <v>-100</v>
@@ -10665,9 +10665,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B513" s="1">
         <v>-30</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B514" s="1">
         <v>-1.28</v>
@@ -10705,9 +10705,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B515" s="1">
         <v>-5.12</v>
@@ -10725,9 +10725,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B516" s="1">
         <v>-32</v>
@@ -10745,9 +10745,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B517" s="1">
         <v>-600</v>
@@ -10765,9 +10765,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B518" s="1">
         <v>-50</v>
@@ -10785,9 +10785,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B519" s="1">
         <v>-50</v>
@@ -10805,9 +10805,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B520" s="1">
         <v>-5</v>
@@ -10825,9 +10825,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B521" s="1">
         <v>-5.12</v>
@@ -10845,9 +10845,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B522" s="1">
         <v>0</v>
@@ -10865,9 +10865,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B523" s="1">
         <v>0</v>
@@ -10885,9 +10885,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B524" s="1">
         <v>0</v>
@@ -10905,9 +10905,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B525" s="1">
         <v>-100</v>
@@ -10925,9 +10925,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B526" s="1">
         <v>-10</v>
@@ -10945,9 +10945,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B527" s="1">
         <v>-30</v>
@@ -10962,9 +10962,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B528" s="1">
         <v>-1</v>
@@ -10979,9 +10979,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B529" s="1">
         <v>-1</v>
@@ -10996,9 +10996,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B530" s="1">
         <v>-600</v>
@@ -11013,9 +11013,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B531" s="1">
         <v>-10</v>
@@ -11030,9 +11030,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B532" s="1">
         <v>-5</v>
@@ -11047,9 +11047,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B533" s="1">
         <v>2</v>
@@ -11064,9 +11064,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B534" s="1">
         <v>-5.12</v>
@@ -11081,9 +11081,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B535" s="1">
         <v>-30</v>
@@ -11098,9 +11098,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B536" s="1">
         <v>-500</v>
@@ -11115,15 +11115,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B537" s="2">
         <v>0</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E537" s="1">
         <v>32</v>
@@ -11132,9 +11132,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B538" s="1">
         <v>-5.12</v>
@@ -11149,7 +11149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>0</v>
       </c>
@@ -11166,9 +11166,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B540" s="1">
         <v>-5.12</v>
@@ -11183,7 +11183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>2</v>
       </c>
@@ -11200,9 +11200,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B542" s="1">
         <v>-100</v>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B543" s="1">
         <v>-10</v>
@@ -11234,15 +11234,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C544" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E544" s="1">
         <v>32</v>
@@ -11251,9 +11251,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B545" s="1">
         <v>-50</v>
@@ -11268,9 +11268,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B546" s="1">
         <v>-50</v>
@@ -11285,9 +11285,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B547" s="1">
         <v>-30</v>
@@ -11302,9 +11302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B548" s="1">
         <v>-1</v>
@@ -11319,9 +11319,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B549" s="1">
         <v>-1</v>
@@ -11336,9 +11336,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B550" s="1">
         <v>-600</v>
@@ -11353,9 +11353,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B551" s="1">
         <v>-10</v>
@@ -11370,9 +11370,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B552" s="1">
         <v>-5</v>
@@ -11387,9 +11387,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B553" s="1">
         <v>2</v>
@@ -11404,9 +11404,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B554" s="1">
         <v>-5.12</v>
@@ -11421,9 +11421,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B555" s="1">
         <v>-30</v>
@@ -11438,9 +11438,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B556" s="1">
         <v>-500</v>
@@ -11455,15 +11455,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B557" s="2">
         <v>0</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E557" s="1">
         <v>33</v>
@@ -11472,9 +11472,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B558" s="1">
         <v>-5.12</v>
@@ -11489,7 +11489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>0</v>
       </c>
@@ -11506,9 +11506,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B560" s="1">
         <v>-5.12</v>
@@ -11523,7 +11523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>2</v>
       </c>
@@ -11540,9 +11540,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B562" s="1">
         <v>-100</v>
@@ -11559,7 +11559,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="B563" s="1">
         <v>-10</v>
@@ -11574,15 +11574,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E564" s="1">
         <v>33</v>
@@ -11591,9 +11591,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B565" s="1">
         <v>-50</v>
@@ -11608,9 +11608,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B566" s="1">
         <v>-50</v>
@@ -11625,7 +11625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>0</v>
       </c>
@@ -11642,9 +11642,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B568" s="1">
         <v>-5.12</v>
@@ -11659,9 +11659,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B569" s="1">
         <v>-5.12</v>
@@ -11676,7 +11676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>2</v>
       </c>
@@ -11693,9 +11693,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B571" s="1">
         <v>-100</v>
@@ -11710,9 +11710,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B572" s="1">
         <v>-5.12</v>
@@ -11727,9 +11727,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B573" s="1">
         <v>-5.12</v>
@@ -11744,9 +11744,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B574" s="1">
         <v>-1</v>
@@ -11761,15 +11761,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C575" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E575" s="1">
         <v>34</v>
@@ -11778,9 +11778,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B576" s="1">
         <v>-30</v>
@@ -11795,9 +11795,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B577" s="1">
         <v>-1</v>
@@ -11812,9 +11812,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B578" s="1">
         <v>-600</v>
@@ -11829,9 +11829,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B579" s="1">
         <v>-10</v>
@@ -11846,9 +11846,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B580" s="1">
         <v>-5</v>
@@ -11863,9 +11863,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B581" s="1">
         <v>-10</v>
@@ -11880,9 +11880,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B582" s="1">
         <v>-10</v>
@@ -11897,9 +11897,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B583" s="1">
         <v>-5.12</v>
@@ -11914,9 +11914,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B584" s="1">
         <v>-5.12</v>
@@ -11931,7 +11931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>0</v>
       </c>
@@ -11948,9 +11948,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B586" s="1">
         <v>-100</v>
@@ -11965,9 +11965,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B587" s="1">
         <v>-5.12</v>
@@ -11982,7 +11982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>2</v>
       </c>
@@ -11999,9 +11999,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B589" s="1">
         <v>-100</v>
@@ -12016,9 +12016,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B590" s="1">
         <v>-100</v>
@@ -12033,9 +12033,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B591" s="1">
         <v>-100</v>
@@ -12050,9 +12050,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B592" s="1">
         <v>-1</v>
@@ -12067,15 +12067,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C593" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B593" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C593" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E593" s="1">
         <v>35</v>
@@ -12084,9 +12084,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B594" s="1">
         <v>-30</v>
@@ -12101,9 +12101,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B595" s="1">
         <v>-1</v>
@@ -12118,9 +12118,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B596" s="1">
         <v>-5</v>
@@ -12135,9 +12135,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B597" s="1">
         <v>-50</v>
@@ -12152,9 +12152,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B598" s="1">
         <v>-50</v>
@@ -12169,9 +12169,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B599" s="1">
         <v>-5.12</v>
@@ -12187,7 +12187,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I599"/>
+  <autoFilter ref="A1:I599">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Quadric"/>
+        <filter val="Quadric Noise"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
